--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>NUMBER</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t>0 hours, -24 minutes</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>9:15 AM</t>
+  </si>
+  <si>
+    <t>(G-WUKF)</t>
+  </si>
+  <si>
+    <t>8:47 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -28 minutes</t>
+  </si>
+  <si>
+    <t>10:25 AM</t>
+  </si>
+  <si>
+    <t>(EI-DYB)</t>
+  </si>
+  <si>
+    <t>10:12 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -13 minutes</t>
   </si>
 </sst>
 </file>
@@ -191,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -380,6 +407,80 @@
       </c>
       <c r="M5" s="0"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="K7" s="0"/>
+      <c r="L7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M7" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>NUMBER</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>0 hours, -13 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIO)</t>
+  </si>
+  <si>
+    <t>5:24 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -31 minutes</t>
   </si>
 </sst>
 </file>
@@ -218,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -481,6 +496,43 @@
       </c>
       <c r="M7" s="0"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M8" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>NUMBER</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>0 hours, -31 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>12:25 PM</t>
+  </si>
+  <si>
+    <t>(HA-LYR)</t>
+  </si>
+  <si>
+    <t>0 hours, -5 minutes</t>
   </si>
 </sst>
 </file>
@@ -233,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -533,6 +545,43 @@
       </c>
       <c r="M8" s="0"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="M9" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>NUMBER</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>0 hours, -5 minutes</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>3:06 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -34 minutes</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -582,6 +591,43 @@
       </c>
       <c r="M9" s="0"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="M10" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>NUMBER</t>
   </si>
@@ -210,6 +210,24 @@
   </si>
   <si>
     <t>0 hours, -34 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DYN)</t>
+  </si>
+  <si>
+    <t>4:24 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LIA)</t>
+  </si>
+  <si>
+    <t>5:15 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -40 minutes</t>
   </si>
 </sst>
 </file>
@@ -254,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -628,6 +646,80 @@
       </c>
       <c r="M10" s="0"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="M12" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>NUMBER</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>0 hours, -40 minutes</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t>(HA-LPK)</t>
+  </si>
+  <si>
+    <t>12:07 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -18 minutes</t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -720,6 +732,43 @@
       </c>
       <c r="M12" s="0"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="M13" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>NUMBER</t>
   </si>
@@ -240,6 +240,36 @@
   </si>
   <si>
     <t>0 hours, -18 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
+  </si>
+  <si>
+    <t>7:33 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 38 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>A21N</t>
+  </si>
+  <si>
+    <t>(HA-LZO)</t>
+  </si>
+  <si>
+    <t>1:32 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 7 minutes</t>
   </si>
 </sst>
 </file>
@@ -284,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -769,6 +799,80 @@
       </c>
       <c r="M13" s="0"/>
     </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K14" s="0"/>
+      <c r="L14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="K15" s="0"/>
+      <c r="L15" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M15" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>NUMBER</t>
   </si>
@@ -242,34 +242,61 @@
     <t>0 hours, -18 minutes</t>
   </si>
   <si>
-    <t>Friday, Jan 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT (Retro Livery) </t>
-  </si>
-  <si>
-    <t>(SP-LIM)</t>
-  </si>
-  <si>
-    <t>7:33 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 38 minutes</t>
-  </si>
-  <si>
-    <t>Saturday, Jan 21</t>
-  </si>
-  <si>
-    <t>A21N</t>
-  </si>
-  <si>
-    <t>(HA-LZO)</t>
-  </si>
-  <si>
-    <t>1:32 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 7 minutes</t>
+    <t>Sunday, Jan 22</t>
+  </si>
+  <si>
+    <t>3:39 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -1 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EGB)</t>
+  </si>
+  <si>
+    <t>1 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LIL)</t>
+  </si>
+  <si>
+    <t>5:45 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -10 minutes</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 26</t>
+  </si>
+  <si>
+    <t>8:59 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -16 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DLH)</t>
+  </si>
+  <si>
+    <t>10:24 AM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 27</t>
+  </si>
+  <si>
+    <t>6:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 28</t>
+  </si>
+  <si>
+    <t>(HA-LWV)</t>
+  </si>
+  <si>
+    <t>12:09 PM</t>
   </si>
 </sst>
 </file>
@@ -314,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -807,32 +834,32 @@
         <v>76</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>79</v>
       </c>
       <c r="K14" s="0"/>
       <c r="L14" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M14" s="0"/>
     </row>
@@ -841,37 +868,222 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K15" s="0"/>
       <c r="L15" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="M15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="K16" s="0"/>
+      <c r="L16" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="M15" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="M17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="K18" s="0"/>
+      <c r="L18" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="M18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="K19" s="0"/>
+      <c r="L19" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="M19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="K20" s="0"/>
+      <c r="L20" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="M20" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/DataBase/SZY_Arrivals.xlsx
+++ b/DataBase/SZY_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
   <si>
     <t>NUMBER</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>12:09 PM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>3:38 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -2 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EGD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
+  </si>
+  <si>
+    <t>5:43 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -12 minutes</t>
   </si>
 </sst>
 </file>
@@ -341,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1085,6 +1109,117 @@
       </c>
       <c r="M20" s="0"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="K22" s="0"/>
+      <c r="L22" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="M22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="K23" s="0"/>
+      <c r="L23" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M23" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
